--- a/customTemplate/wageRate/customWageRate.xlsx
+++ b/customTemplate/wageRate/customWageRate.xlsx
@@ -1,171 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ab0ca60d3e11cd5c/Desktop/hrManagementSystem/customTemplate/wageRate/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EFC42D2-51E5-44CA-BC8A-E6E3CD4BB1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A99040A0-9F09-4274-AAE2-F55045E32234}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Particulars</t>
-  </si>
-  <si>
-    <t>Wage_Rate_1</t>
-  </si>
-  <si>
-    <t>Wage_Rate_2</t>
-  </si>
-  <si>
-    <t>DSM</t>
-  </si>
-  <si>
-    <t>DSM Addl.Allowance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECH </t>
-  </si>
-  <si>
-    <t>TECH Addl. Allowance</t>
-  </si>
-  <si>
-    <t>MANAGER</t>
-  </si>
-  <si>
-    <t>MANAGER Addl.Allowance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSM FH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSM FH Addl.  Allowance  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECH FH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECH FH Addl.Allowance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGR FH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGR FH Addl.Allowance  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSM NH  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSM NH Addl.Allowance  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECH NH  </t>
-  </si>
-  <si>
-    <t>TECH NH  Addl.Allowance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGR NH  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGR NH Addl.Allowance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSM CL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSM CL Addl.Allowance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECH  CL </t>
-  </si>
-  <si>
-    <t>TECH CL Addl.Allowance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGR CL </t>
-  </si>
-  <si>
-    <t>MGR CL Addl.Allowance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSM F&amp;S Traning  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DSM F&amp;S Traning Addl.Allowance  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECH F&amp;S Traning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TECH F&amp;S Traning Addl.Allowance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGR F&amp;S Traning </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MGR F&amp;S Traning Addl.Allowance  </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -183,13 +60,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -199,81 +75,133 @@
   <dxfs count="3">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="10"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center"/>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
-        <u val="none"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="9"/>
         <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{442A62EE-EDEF-4E36-9F93-A446D0D2846C}" name="Table1" displayName="Table1" ref="A1:C31" totalsRowShown="0">
-  <autoFilter ref="A1:C31" xr:uid="{442A62EE-EDEF-4E36-9F93-A446D0D2846C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C31" headerRowCount="1" totalsRowShown="0">
+  <autoFilter ref="A1:C31"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5764EF20-5CE7-4EC4-B715-7329EFA4AA82}" name="Particulars" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{8A398ECC-0866-4E08-9136-13299AECB117}" name="Wage_Rate_1" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{819EFE1D-68C2-4B3D-9810-334DE54A129C}" name="Wage_Rate_2" dataDxfId="0"/>
+    <tableColumn id="1" name="Particulars" dataDxfId="2"/>
+    <tableColumn id="2" name="Wage_Rate_1" dataDxfId="1"/>
+    <tableColumn id="3" name="Wage_Rate_2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -575,364 +503,434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C0CECA-6D60-41F6-8851-3206CEBD975B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.44140625" customWidth="1"/>
+    <col width="25" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="14.44140625" customWidth="1" min="2" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Particulars</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Wage_Rate_1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Wage_Rate_2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>DSM</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>24250</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2" t="n">
         <v>27029</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>DSM Addl.Allowance</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>604</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TECH </t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>22620</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2" t="n">
         <v>24466</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>TECH Addl. Allowance</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>1258</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>MANAGER</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>23706</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2" t="n">
         <v>26390</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>MANAGER Addl.Allowance</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>1300</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DSM FH </t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>20728</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2" t="n">
         <v>23104</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DSM FH Addl.  Allowance  </t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>516</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TECH FH </t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>22620</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2" t="n">
         <v>24466</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TECH FH Addl.Allowance </t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
         <v>1258</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGR FH </t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
         <v>23706</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2" t="n">
         <v>26390</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGR FH Addl.Allowance  </t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
         <v>1300</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DSM NH  </t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
         <v>20728</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2" t="n">
         <v>23104</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DSM NH Addl.Allowance  </t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
         <v>516</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TECH NH  </t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
         <v>22620</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2" t="n">
         <v>24466</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>TECH NH  Addl.Allowance</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
         <v>1258</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGR NH  </t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
         <v>23706</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2" t="n">
         <v>26390</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGR NH Addl.Allowance </t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
         <v>1300</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="3">
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DSM CL </t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
         <v>20728</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2" t="n">
         <v>23104</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DSM CL Addl.Allowance </t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
         <v>516</v>
       </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="C21" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TECH  CL </t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
         <v>22620</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2" t="n">
         <v>24466</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="3">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>TECH CL Addl.Allowance</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
         <v>1258</v>
       </c>
-      <c r="C23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGR CL </t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
         <v>23706</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2" t="n">
         <v>26390</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="3">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>MGR CL Addl.Allowance</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
         <v>1300</v>
       </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="3">
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DSM F&amp;S Traning  </t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
         <v>20728</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2" t="n">
         <v>23104</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="3">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DSM F&amp;S Traning Addl.Allowance  </t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
         <v>516</v>
       </c>
-      <c r="C27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="C27" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TECH F&amp;S Traning </t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
         <v>22620</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2" t="n">
         <v>24466</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="3">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TECH F&amp;S Traning Addl.Allowance </t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
         <v>1258</v>
       </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="3">
+      <c r="C29" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGR F&amp;S Traning </t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
         <v>23706</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2" t="n">
         <v>26390</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="3">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MGR F&amp;S Traning Addl.Allowance  </t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
         <v>1300</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/customTemplate/wageRate/customWageRate.xlsx
+++ b/customTemplate/wageRate/customWageRate.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -60,8 +60,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -201,8 +200,8 @@
   <autoFilter ref="A1:C31"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Particulars" dataDxfId="2"/>
-    <tableColumn id="2" name="Wage_Rate_1" dataDxfId="1"/>
-    <tableColumn id="3" name="Wage_Rate_2" dataDxfId="0"/>
+    <tableColumn id="2" name="Wage_Rate_1" dataDxfId="0"/>
+    <tableColumn id="3" name="Wage_Rate_2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -477,14 +476,14 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="31.5546875" bestFit="1" customWidth="1" style="1" min="1" max="1"/>
-    <col width="13.33203125" customWidth="1" style="1" min="2" max="3"/>
+    <col width="31.5546875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="13.33203125" customWidth="1" min="2" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -493,404 +492,404 @@
           <t>Particulars</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Wage_Rate_1</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Wage_Rate_2</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>DSM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>24250</v>
-      </c>
-      <c r="C2" s="2" t="n">
+      <c r="B2" s="1" t="n">
         <v>27029</v>
       </c>
+      <c r="C2" s="1" t="n">
+        <v>27029</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>DSM Addl.Allowance</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>604</v>
-      </c>
-      <c r="C3" s="2" t="n">
+      <c r="B3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TECH </t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>22620</v>
-      </c>
-      <c r="C4" s="2" t="n">
+      <c r="B4" s="1" t="n">
         <v>24466</v>
       </c>
+      <c r="C4" s="1" t="n">
+        <v>24466</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>TECH Addl. Allowance</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>1258</v>
-      </c>
-      <c r="C5" s="2" t="n">
+      <c r="B5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>MANAGER</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>23706</v>
-      </c>
-      <c r="C6" s="2" t="n">
+      <c r="B6" s="1" t="n">
         <v>26390</v>
       </c>
+      <c r="C6" s="1" t="n">
+        <v>26390</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>MANAGER Addl.Allowance</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>1300</v>
-      </c>
-      <c r="C7" s="2" t="n">
+      <c r="B7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">DSM FH </t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>20728</v>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="B8" s="1" t="n">
         <v>23104</v>
       </c>
+      <c r="C8" s="1" t="n">
+        <v>23104</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">DSM FH Addl.  Allowance  </t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>516</v>
-      </c>
-      <c r="C9" s="2" t="n">
+      <c r="B9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TECH FH </t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>22620</v>
-      </c>
-      <c r="C10" s="2" t="n">
+      <c r="B10" s="1" t="n">
         <v>24466</v>
       </c>
+      <c r="C10" s="1" t="n">
+        <v>24466</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="inlineStr">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TECH FH Addl.Allowance </t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>1258</v>
-      </c>
-      <c r="C11" s="2" t="n">
+      <c r="B11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="inlineStr">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">MGR FH </t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>23706</v>
-      </c>
-      <c r="C12" s="2" t="n">
+      <c r="B12" s="1" t="n">
         <v>26390</v>
       </c>
+      <c r="C12" s="1" t="n">
+        <v>26390</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="inlineStr">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">MGR FH Addl.Allowance  </t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>1300</v>
-      </c>
-      <c r="C13" s="2" t="n">
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">DSM NH  </t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>20728</v>
-      </c>
-      <c r="C14" s="2" t="n">
+      <c r="B14" s="1" t="n">
         <v>23104</v>
       </c>
+      <c r="C14" s="1" t="n">
+        <v>23104</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">DSM NH Addl.Allowance  </t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>516</v>
-      </c>
-      <c r="C15" s="2" t="n">
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="inlineStr">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TECH NH  </t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>22620</v>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="B16" s="1" t="n">
         <v>24466</v>
       </c>
+      <c r="C16" s="1" t="n">
+        <v>24466</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>TECH NH  Addl.Allowance</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>1258</v>
-      </c>
-      <c r="C17" s="2" t="n">
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">MGR NH  </t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>23706</v>
-      </c>
-      <c r="C18" s="2" t="n">
+      <c r="B18" s="1" t="n">
         <v>26390</v>
       </c>
+      <c r="C18" s="1" t="n">
+        <v>26390</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">MGR NH Addl.Allowance </t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>1300</v>
-      </c>
-      <c r="C19" s="2" t="n">
+      <c r="B19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">DSM CL </t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>20728</v>
-      </c>
-      <c r="C20" s="2" t="n">
+      <c r="B20" s="1" t="n">
         <v>23104</v>
       </c>
+      <c r="C20" s="1" t="n">
+        <v>23104</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">DSM CL Addl.Allowance </t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>516</v>
-      </c>
-      <c r="C21" s="2" t="n">
+      <c r="B21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TECH  CL </t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>22620</v>
-      </c>
-      <c r="C22" s="2" t="n">
+      <c r="B22" s="1" t="n">
         <v>24466</v>
       </c>
+      <c r="C22" s="1" t="n">
+        <v>24466</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>TECH CL Addl.Allowance</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>1258</v>
-      </c>
-      <c r="C23" s="2" t="n">
+      <c r="B23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">MGR CL </t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>23706</v>
-      </c>
-      <c r="C24" s="2" t="n">
+      <c r="B24" s="1" t="n">
         <v>26390</v>
       </c>
+      <c r="C24" s="1" t="n">
+        <v>26390</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>MGR CL Addl.Allowance</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>1300</v>
-      </c>
-      <c r="C25" s="2" t="n">
+      <c r="B25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">DSM F&amp;S Traning  </t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>20728</v>
-      </c>
-      <c r="C26" s="2" t="n">
+      <c r="B26" s="1" t="n">
         <v>23104</v>
       </c>
+      <c r="C26" s="1" t="n">
+        <v>23104</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="inlineStr">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">DSM F&amp;S Traning Addl.Allowance  </t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>516</v>
-      </c>
-      <c r="C27" s="2" t="n">
+      <c r="B27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TECH F&amp;S Traning </t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>22620</v>
-      </c>
-      <c r="C28" s="2" t="n">
+      <c r="B28" s="1" t="n">
         <v>24466</v>
       </c>
+      <c r="C28" s="1" t="n">
+        <v>24466</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="inlineStr">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">TECH F&amp;S Traning Addl.Allowance </t>
         </is>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>1258</v>
-      </c>
-      <c r="C29" s="2" t="n">
+      <c r="B29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">MGR F&amp;S Traning </t>
         </is>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>23706</v>
-      </c>
-      <c r="C30" s="2" t="n">
+      <c r="B30" s="1" t="n">
         <v>26390</v>
       </c>
+      <c r="C30" s="1" t="n">
+        <v>26390</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">MGR F&amp;S Traning Addl.Allowance  </t>
         </is>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>1300</v>
-      </c>
-      <c r="C31" s="2" t="n">
+      <c r="B31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="n">
         <v>0</v>
       </c>
     </row>
